--- a/Documentation/full_BOM.xlsx
+++ b/Documentation/full_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6255"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="4170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
   <si>
     <t>Column10</t>
   </si>
@@ -96,21 +96,9 @@
     <t>2 pin polar</t>
   </si>
   <si>
-    <t>Molex</t>
-  </si>
-  <si>
-    <t>22-23-2021</t>
-  </si>
-  <si>
     <t>Sparkfun</t>
   </si>
   <si>
-    <t>PRT-08232</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8232</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -186,12 +174,6 @@
     <t>http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264</t>
   </si>
   <si>
-    <t>https://www.sparkfun.com/products/8233</t>
-  </si>
-  <si>
-    <t>PRT-08233</t>
-  </si>
-  <si>
     <t>16MHz</t>
   </si>
   <si>
@@ -273,18 +255,6 @@
     <t>3 pin polar</t>
   </si>
   <si>
-    <t>22-23-2051</t>
-  </si>
-  <si>
-    <t>PRT-08230</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8230</t>
-  </si>
-  <si>
-    <t>22-23-2031</t>
-  </si>
-  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -321,24 +291,6 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>PRT-08095 </t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8095</t>
-  </si>
-  <si>
-    <t>PRT-08096</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8096</t>
-  </si>
-  <si>
-    <t>PRT-08098</t>
-  </si>
-  <si>
-    <t>https://www.sparkfun.com/products/8098</t>
-  </si>
-  <si>
     <t>Ultrasonic</t>
   </si>
   <si>
@@ -523,6 +475,45 @@
   </si>
   <si>
     <t>prox_system_BOM</t>
+  </si>
+  <si>
+    <t>Molex Inc</t>
+  </si>
+  <si>
+    <t>WM4201-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669</t>
+  </si>
+  <si>
+    <t>WM4203-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673</t>
+  </si>
+  <si>
+    <t>WM4200-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667</t>
+  </si>
+  <si>
+    <t>WM2014-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057</t>
+  </si>
+  <si>
+    <t>WM2011-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991</t>
+  </si>
+  <si>
+    <t>WM2012-ND</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992</t>
   </si>
 </sst>
 </file>
@@ -645,10 +636,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K37" totalsRowShown="0">
   <autoFilter ref="A1:K37"/>
-  <sortState ref="A2:K88">
-    <sortCondition ref="A2:A88"/>
-    <sortCondition ref="F2:F88"/>
-    <sortCondition ref="K2:K88"/>
+  <sortState ref="A2:K37">
+    <sortCondition ref="A2:A37"/>
+    <sortCondition ref="F2:F37"/>
+    <sortCondition ref="K2:K37"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
@@ -961,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1013,7 +1004,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -1033,10 +1024,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C2" s="3">
         <v>40</v>
@@ -1044,13 +1035,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="I2" s="6">
         <v>1.5</v>
@@ -1065,20 +1056,20 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="I3" s="6">
         <v>29.95</v>
@@ -1093,20 +1084,20 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="I4" s="4">
         <v>4.95</v>
@@ -1124,35 +1115,35 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1">
-        <v>0.52</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J5" s="3">
         <v>2</v>
       </c>
       <c r="K5" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.04</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1160,35 +1151,35 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I6" s="4">
-        <v>0.28999999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="J6" s="3">
         <v>2</v>
       </c>
       <c r="K6" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.57999999999999996</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1199,22 +1190,22 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I7" s="4">
         <v>0.2</v>
@@ -1229,10 +1220,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3">
         <v>20</v>
@@ -1240,23 +1231,23 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="I8" s="6">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="J8" s="3">
         <v>10</v>
       </c>
       <c r="K8" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>19.5</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1265,22 +1256,22 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="I9" s="4">
         <v>0.35</v>
@@ -1298,33 +1289,33 @@
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
+      <c r="D10" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="5">
+        <v>22232031</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="I10" s="6">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="J10" s="3">
         <v>5</v>
       </c>
       <c r="K10" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1332,67 +1323,67 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>85</v>
+      <c r="D11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="5">
+        <v>22232051</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>87</v>
+        <v>157</v>
       </c>
       <c r="I11" s="6">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="J11" s="3">
         <v>10</v>
       </c>
       <c r="K11" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
+      <c r="D12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="5">
+        <v>22232021</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>56</v>
+        <v>159</v>
       </c>
       <c r="I12" s="4">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="J12" s="3">
         <v>16</v>
       </c>
       <c r="K12" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>7.2</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1404,19 +1395,19 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="I13" s="4">
         <v>0.69</v>
@@ -1431,22 +1422,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="I14" s="6">
         <v>2.5</v>
@@ -1461,24 +1452,24 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="I15" s="6">
         <v>2.5</v>
@@ -1493,24 +1484,24 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B16" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="I16" s="6">
         <v>2.95</v>
@@ -1523,12 +1514,12 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3">
         <v>40</v>
@@ -1536,13 +1527,13 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I17" s="4">
         <v>1.5</v>
@@ -1557,92 +1548,101 @@
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
+        <v>78</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="5">
+        <v>22012037</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="I18" s="6">
-        <v>0.45</v>
+        <v>0.18</v>
       </c>
       <c r="J18" s="3">
         <v>6</v>
       </c>
       <c r="K18" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>2.7</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>26</v>
+      <c r="D19" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="5">
+        <v>22012027</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="I19" s="6">
-        <v>0.45</v>
+        <v>0.1</v>
       </c>
       <c r="J19" s="3">
         <v>16</v>
       </c>
       <c r="K19" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>7.2</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="5">
+        <v>22012057</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="I20" s="6">
-        <v>0.45</v>
+        <v>0.27</v>
       </c>
       <c r="J20" s="3">
         <v>26</v>
       </c>
       <c r="K20" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>11.700000000000001</v>
+        <v>7.0200000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1653,19 +1653,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="I21" s="4">
         <v>0.43</v>
@@ -1680,25 +1680,25 @@
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I22" s="6">
         <v>3.31</v>
@@ -1713,21 +1713,21 @@
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="I23" s="4">
         <v>29.95</v>
@@ -1742,19 +1742,19 @@
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G24" s="5">
         <v>572</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="I24" s="6">
         <v>9.9499999999999993</v>
@@ -1769,25 +1769,25 @@
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G25" s="9">
         <v>4986181</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="I25" s="6">
         <v>12.69</v>
@@ -1802,18 +1802,18 @@
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="I26" s="4">
         <v>9.9499999999999993</v>
@@ -1828,16 +1828,16 @@
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="I27" s="6">
         <v>9.9499999999999993</v>
@@ -1856,22 +1856,22 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I28" s="6">
         <v>0.08</v>
@@ -1889,22 +1889,22 @@
         <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D29" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="H29" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I29" s="6">
         <v>0.05</v>
@@ -1919,19 +1919,19 @@
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="I30" s="6">
         <v>1.95</v>
@@ -1946,19 +1946,19 @@
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="I31" s="6">
         <v>1.95</v>
@@ -1973,18 +1973,18 @@
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="I32" s="6">
         <v>5.95</v>
@@ -2002,22 +2002,22 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I33" s="6">
         <v>0.35</v>
@@ -2032,55 +2032,55 @@
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I34" s="6">
         <v>0.19</v>
       </c>
       <c r="J34" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K34" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.76</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I35" s="6">
         <v>49.95</v>
@@ -2095,22 +2095,22 @@
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I36" s="6">
         <v>49.95</v>
@@ -2132,7 +2132,7 @@
     <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2145,21 +2145,21 @@
       <c r="J39" s="7"/>
       <c r="K39" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>361.41999999999996</v>
+        <v>343.36</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2266,78 +2266,85 @@
     <hyperlink ref="G22" r:id="rId2" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="E22" r:id="rId3" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="D22" r:id="rId4" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
-    <hyperlink ref="G10" r:id="rId5"/>
-    <hyperlink ref="H10" r:id="rId6"/>
-    <hyperlink ref="H34" r:id="rId7"/>
-    <hyperlink ref="G34" r:id="rId8" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="E34" r:id="rId9" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="D34" r:id="rId10" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="G33" r:id="rId11"/>
-    <hyperlink ref="H33" r:id="rId12"/>
-    <hyperlink ref="H29" r:id="rId13"/>
-    <hyperlink ref="H28" r:id="rId14"/>
-    <hyperlink ref="G29" r:id="rId15" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="E29" r:id="rId16" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="D29" r:id="rId17" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="G28" r:id="rId18" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="E28" r:id="rId19" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="D28" r:id="rId20" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="H9" r:id="rId21"/>
-    <hyperlink ref="G9" r:id="rId22" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="E9" r:id="rId23" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="D9" r:id="rId24" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
-    <hyperlink ref="H12" r:id="rId25"/>
-    <hyperlink ref="G12" r:id="rId26" display="PRT-08232"/>
-    <hyperlink ref="H21" r:id="rId27"/>
-    <hyperlink ref="G21" r:id="rId28" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="E21" r:id="rId29" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="D21" r:id="rId30" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
-    <hyperlink ref="E13" r:id="rId31" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="G13" r:id="rId32" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="D13" r:id="rId33" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="G5" r:id="rId34" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="E5" r:id="rId35" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="H7" r:id="rId36"/>
-    <hyperlink ref="D5" r:id="rId37" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
-    <hyperlink ref="G7" r:id="rId38" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="E7" r:id="rId39" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="D7" r:id="rId40" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="G6" r:id="rId41" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="E6" r:id="rId42" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="D6" r:id="rId43" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="H19" r:id="rId44"/>
-    <hyperlink ref="G19" r:id="rId45"/>
-    <hyperlink ref="G18" r:id="rId46"/>
-    <hyperlink ref="H18" r:id="rId47"/>
-    <hyperlink ref="H35" r:id="rId48"/>
-    <hyperlink ref="H36" r:id="rId49"/>
-    <hyperlink ref="G36" r:id="rId50"/>
-    <hyperlink ref="G35" r:id="rId51"/>
-    <hyperlink ref="G30" r:id="rId52"/>
-    <hyperlink ref="G31" r:id="rId53"/>
-    <hyperlink ref="G25" r:id="rId54" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
-    <hyperlink ref="G2" r:id="rId55"/>
-    <hyperlink ref="G17" r:id="rId56"/>
-    <hyperlink ref="H8" r:id="rId57"/>
-    <hyperlink ref="G8" r:id="rId58"/>
-    <hyperlink ref="G11" r:id="rId59"/>
-    <hyperlink ref="H11" r:id="rId60"/>
-    <hyperlink ref="G23" r:id="rId61"/>
-    <hyperlink ref="G3" r:id="rId62"/>
-    <hyperlink ref="G26" r:id="rId63"/>
-    <hyperlink ref="G4" r:id="rId64"/>
-    <hyperlink ref="G14" r:id="rId65"/>
-    <hyperlink ref="G16" r:id="rId66"/>
-    <hyperlink ref="G32" r:id="rId67"/>
-    <hyperlink ref="G24" r:id="rId68" display="http://www.adafruit.com/products/572"/>
-    <hyperlink ref="G27" r:id="rId69"/>
-    <hyperlink ref="H20" r:id="rId70"/>
+    <hyperlink ref="H34" r:id="rId5"/>
+    <hyperlink ref="G34" r:id="rId6" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="E34" r:id="rId7" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="D34" r:id="rId8" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="G33" r:id="rId9"/>
+    <hyperlink ref="H33" r:id="rId10"/>
+    <hyperlink ref="H29" r:id="rId11"/>
+    <hyperlink ref="H28" r:id="rId12"/>
+    <hyperlink ref="G29" r:id="rId13" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="E29" r:id="rId14" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="D29" r:id="rId15" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="G28" r:id="rId16" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="E28" r:id="rId17" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="D28" r:id="rId18" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="H9" r:id="rId19"/>
+    <hyperlink ref="G9" r:id="rId20" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="E9" r:id="rId21" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="D9" r:id="rId22" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
+    <hyperlink ref="H21" r:id="rId23"/>
+    <hyperlink ref="G21" r:id="rId24" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="E21" r:id="rId25" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="D21" r:id="rId26" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
+    <hyperlink ref="E13" r:id="rId27" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="G13" r:id="rId28" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="D13" r:id="rId29" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="G6" r:id="rId30" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="E6" r:id="rId31" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="H7" r:id="rId32"/>
+    <hyperlink ref="D6" r:id="rId33" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
+    <hyperlink ref="G7" r:id="rId34" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="E7" r:id="rId35" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="D7" r:id="rId36" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="G5" r:id="rId37" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="E5" r:id="rId38" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="D5" r:id="rId39" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="H35" r:id="rId40"/>
+    <hyperlink ref="H36" r:id="rId41"/>
+    <hyperlink ref="G36" r:id="rId42"/>
+    <hyperlink ref="G35" r:id="rId43"/>
+    <hyperlink ref="G30" r:id="rId44"/>
+    <hyperlink ref="G31" r:id="rId45"/>
+    <hyperlink ref="G25" r:id="rId46" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
+    <hyperlink ref="G2" r:id="rId47"/>
+    <hyperlink ref="G17" r:id="rId48"/>
+    <hyperlink ref="H8" r:id="rId49"/>
+    <hyperlink ref="G8" r:id="rId50"/>
+    <hyperlink ref="G23" r:id="rId51"/>
+    <hyperlink ref="G3" r:id="rId52"/>
+    <hyperlink ref="G26" r:id="rId53"/>
+    <hyperlink ref="G4" r:id="rId54"/>
+    <hyperlink ref="G14" r:id="rId55"/>
+    <hyperlink ref="G16" r:id="rId56"/>
+    <hyperlink ref="G32" r:id="rId57"/>
+    <hyperlink ref="G24" r:id="rId58" display="http://www.adafruit.com/products/572"/>
+    <hyperlink ref="G27" r:id="rId59"/>
+    <hyperlink ref="D10" r:id="rId60" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E10" r:id="rId61" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="G10" r:id="rId62" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="D11" r:id="rId63" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E11" r:id="rId64" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="G11" r:id="rId65" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="H11" r:id="rId66"/>
+    <hyperlink ref="E12" r:id="rId67" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D12" r:id="rId68" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G12" r:id="rId69" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D20" r:id="rId70" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
     <hyperlink ref="G20" r:id="rId71"/>
+    <hyperlink ref="E20" r:id="rId72" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
+    <hyperlink ref="D19" r:id="rId73" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E19" r:id="rId74" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
+    <hyperlink ref="G19" r:id="rId75" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
+    <hyperlink ref="D18" r:id="rId76" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E18" r:id="rId77" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="G18" r:id="rId78" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId72"/>
+  <pageSetup scale="46" orientation="landscape" r:id="rId79"/>
   <tableParts count="1">
-    <tablePart r:id="rId73"/>
+    <tablePart r:id="rId80"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/full_BOM.xlsx
+++ b/Documentation/full_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="4170"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="169">
   <si>
     <t>Column10</t>
   </si>
@@ -96,9 +96,21 @@
     <t>2 pin polar</t>
   </si>
   <si>
+    <t>Molex</t>
+  </si>
+  <si>
+    <t>22-23-2021</t>
+  </si>
+  <si>
     <t>Sparkfun</t>
   </si>
   <si>
+    <t>PRT-08232</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8232</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -174,6 +186,12 @@
     <t>http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264</t>
   </si>
   <si>
+    <t>https://www.sparkfun.com/products/8233</t>
+  </si>
+  <si>
+    <t>PRT-08233</t>
+  </si>
+  <si>
     <t>16MHz</t>
   </si>
   <si>
@@ -255,6 +273,18 @@
     <t>3 pin polar</t>
   </si>
   <si>
+    <t>22-23-2051</t>
+  </si>
+  <si>
+    <t>PRT-08230</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8230</t>
+  </si>
+  <si>
+    <t>22-23-2031</t>
+  </si>
+  <si>
     <t>Microcontroller</t>
   </si>
   <si>
@@ -291,6 +321,24 @@
     <t>Housing</t>
   </si>
   <si>
+    <t>PRT-08095 </t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8095</t>
+  </si>
+  <si>
+    <t>PRT-08096</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8096</t>
+  </si>
+  <si>
+    <t>PRT-08098</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/8098</t>
+  </si>
+  <si>
     <t>Ultrasonic</t>
   </si>
   <si>
@@ -475,45 +523,6 @@
   </si>
   <si>
     <t>prox_system_BOM</t>
-  </si>
-  <si>
-    <t>Molex Inc</t>
-  </si>
-  <si>
-    <t>WM4201-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669</t>
-  </si>
-  <si>
-    <t>WM4203-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673</t>
-  </si>
-  <si>
-    <t>WM4200-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667</t>
-  </si>
-  <si>
-    <t>WM2014-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057</t>
-  </si>
-  <si>
-    <t>WM2011-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991</t>
-  </si>
-  <si>
-    <t>WM2012-ND</t>
-  </si>
-  <si>
-    <t>http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992</t>
   </si>
 </sst>
 </file>
@@ -636,10 +645,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K37" totalsRowShown="0">
   <autoFilter ref="A1:K37"/>
-  <sortState ref="A2:K37">
-    <sortCondition ref="A2:A37"/>
-    <sortCondition ref="F2:F37"/>
-    <sortCondition ref="K2:K37"/>
+  <sortState ref="A2:K88">
+    <sortCondition ref="A2:A88"/>
+    <sortCondition ref="F2:F88"/>
+    <sortCondition ref="K2:K88"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="Part"/>
@@ -952,8 +961,8 @@
   </sheetPr>
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +989,7 @@
         <v>16</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1004,7 +1013,7 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -1024,10 +1033,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C2" s="3">
         <v>40</v>
@@ -1035,13 +1044,13 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="I2" s="6">
         <v>1.5</v>
@@ -1056,20 +1065,20 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="I3" s="6">
         <v>29.95</v>
@@ -1084,20 +1093,20 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="I4" s="4">
         <v>4.95</v>
@@ -1115,35 +1124,35 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="J5" s="3">
         <v>2</v>
       </c>
       <c r="K5" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.57999999999999996</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1151,35 +1160,35 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4">
-        <v>0.52</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J6" s="3">
         <v>2</v>
       </c>
       <c r="K6" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.04</v>
+        <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1190,22 +1199,22 @@
         <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I7" s="4">
         <v>0.2</v>
@@ -1220,10 +1229,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C8" s="3">
         <v>20</v>
@@ -1231,23 +1240,23 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I8" s="6">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="J8" s="3">
         <v>10</v>
       </c>
       <c r="K8" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>17.600000000000001</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1256,22 +1265,22 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I9" s="4">
         <v>0.35</v>
@@ -1289,33 +1298,33 @@
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3"/>
-      <c r="D10" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E10" s="5">
-        <v>22232031</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
+      <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>154</v>
+        <v>29</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>155</v>
+        <v>30</v>
       </c>
       <c r="I10" s="6">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="J10" s="3">
         <v>5</v>
       </c>
       <c r="K10" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1323,67 +1332,67 @@
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="5">
-        <v>22232051</v>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="I11" s="6">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="J11" s="3">
         <v>10</v>
       </c>
       <c r="K11" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" s="5">
-        <v>22232021</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>32</v>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="I12" s="4">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="J12" s="3">
         <v>16</v>
       </c>
       <c r="K12" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.04</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1395,19 +1404,19 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="I13" s="4">
         <v>0.69</v>
@@ -1422,22 +1431,22 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I14" s="6">
         <v>2.5</v>
@@ -1452,24 +1461,24 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="I15" s="6">
         <v>2.5</v>
@@ -1484,24 +1493,24 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="I16" s="6">
         <v>2.95</v>
@@ -1514,12 +1523,12 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C17" s="3">
         <v>40</v>
@@ -1527,13 +1536,13 @@
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="I17" s="4">
         <v>1.5</v>
@@ -1548,101 +1557,92 @@
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="5">
-        <v>22012037</v>
+        <v>84</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>164</v>
+        <v>103</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="I18" s="6">
-        <v>0.18</v>
+        <v>0.45</v>
       </c>
       <c r="J18" s="3">
         <v>6</v>
       </c>
       <c r="K18" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.08</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="5">
-        <v>22012027</v>
+      <c r="D19" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>162</v>
+        <v>101</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
       <c r="I19" s="6">
-        <v>0.1</v>
+        <v>0.45</v>
       </c>
       <c r="J19" s="3">
         <v>16</v>
       </c>
       <c r="K19" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="5">
-        <v>22012057</v>
+        <v>83</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="I20" s="6">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="J20" s="3">
         <v>26</v>
       </c>
       <c r="K20" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>7.0200000000000005</v>
+        <v>11.700000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1653,19 +1653,19 @@
         <v>20</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I21" s="4">
         <v>0.43</v>
@@ -1680,25 +1680,25 @@
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I22" s="6">
         <v>3.31</v>
@@ -1713,21 +1713,21 @@
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="I23" s="4">
         <v>29.95</v>
@@ -1742,19 +1742,19 @@
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G24" s="5">
         <v>572</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="I24" s="6">
         <v>9.9499999999999993</v>
@@ -1769,25 +1769,25 @@
     </row>
     <row r="25" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="G25" s="9">
         <v>4986181</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="I25" s="6">
         <v>12.69</v>
@@ -1802,18 +1802,18 @@
     </row>
     <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="I26" s="4">
         <v>9.9499999999999993</v>
@@ -1828,16 +1828,16 @@
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="I27" s="6">
         <v>9.9499999999999993</v>
@@ -1856,22 +1856,22 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I28" s="6">
         <v>0.08</v>
@@ -1889,22 +1889,22 @@
         <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I29" s="6">
         <v>0.05</v>
@@ -1919,19 +1919,19 @@
     </row>
     <row r="30" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="I30" s="6">
         <v>1.95</v>
@@ -1946,19 +1946,19 @@
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="I31" s="6">
         <v>1.95</v>
@@ -1973,18 +1973,18 @@
     </row>
     <row r="32" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="I32" s="6">
         <v>5.95</v>
@@ -2002,22 +2002,22 @@
         <v>24</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I33" s="6">
         <v>0.35</v>
@@ -2032,55 +2032,55 @@
     </row>
     <row r="34" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I34" s="6">
         <v>0.19</v>
       </c>
       <c r="J34" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K34" s="2">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.71</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="I35" s="6">
         <v>49.95</v>
@@ -2095,22 +2095,22 @@
     </row>
     <row r="36" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="I36" s="6">
         <v>49.95</v>
@@ -2132,7 +2132,7 @@
     <row r="38" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -2145,21 +2145,21 @@
       <c r="J39" s="7"/>
       <c r="K39" s="8">
         <f>SUM(Table3[Total])</f>
-        <v>343.36</v>
+        <v>361.41999999999996</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -2266,85 +2266,78 @@
     <hyperlink ref="G22" r:id="rId2" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="E22" r:id="rId3" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="D22" r:id="rId4" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
-    <hyperlink ref="H34" r:id="rId5"/>
-    <hyperlink ref="G34" r:id="rId6" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="E34" r:id="rId7" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="D34" r:id="rId8" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="G33" r:id="rId9"/>
-    <hyperlink ref="H33" r:id="rId10"/>
-    <hyperlink ref="H29" r:id="rId11"/>
-    <hyperlink ref="H28" r:id="rId12"/>
-    <hyperlink ref="G29" r:id="rId13" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="E29" r:id="rId14" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="D29" r:id="rId15" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="G28" r:id="rId16" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="E28" r:id="rId17" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="D28" r:id="rId18" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="H9" r:id="rId19"/>
-    <hyperlink ref="G9" r:id="rId20" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="E9" r:id="rId21" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="D9" r:id="rId22" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
-    <hyperlink ref="H21" r:id="rId23"/>
-    <hyperlink ref="G21" r:id="rId24" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="E21" r:id="rId25" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="D21" r:id="rId26" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
-    <hyperlink ref="E13" r:id="rId27" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="G13" r:id="rId28" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="D13" r:id="rId29" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="G6" r:id="rId30" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="E6" r:id="rId31" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="H7" r:id="rId32"/>
-    <hyperlink ref="D6" r:id="rId33" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
-    <hyperlink ref="G7" r:id="rId34" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="E7" r:id="rId35" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="D7" r:id="rId36" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="G5" r:id="rId37" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="E5" r:id="rId38" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="D5" r:id="rId39" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="H35" r:id="rId40"/>
-    <hyperlink ref="H36" r:id="rId41"/>
-    <hyperlink ref="G36" r:id="rId42"/>
-    <hyperlink ref="G35" r:id="rId43"/>
-    <hyperlink ref="G30" r:id="rId44"/>
-    <hyperlink ref="G31" r:id="rId45"/>
-    <hyperlink ref="G25" r:id="rId46" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
-    <hyperlink ref="G2" r:id="rId47"/>
-    <hyperlink ref="G17" r:id="rId48"/>
-    <hyperlink ref="H8" r:id="rId49"/>
-    <hyperlink ref="G8" r:id="rId50"/>
-    <hyperlink ref="G23" r:id="rId51"/>
-    <hyperlink ref="G3" r:id="rId52"/>
-    <hyperlink ref="G26" r:id="rId53"/>
-    <hyperlink ref="G4" r:id="rId54"/>
-    <hyperlink ref="G14" r:id="rId55"/>
-    <hyperlink ref="G16" r:id="rId56"/>
-    <hyperlink ref="G32" r:id="rId57"/>
-    <hyperlink ref="G24" r:id="rId58" display="http://www.adafruit.com/products/572"/>
-    <hyperlink ref="G27" r:id="rId59"/>
-    <hyperlink ref="D10" r:id="rId60" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E10" r:id="rId61" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="G10" r:id="rId62" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="D11" r:id="rId63" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E11" r:id="rId64" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="G11" r:id="rId65" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="H11" r:id="rId66"/>
-    <hyperlink ref="E12" r:id="rId67" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D12" r:id="rId68" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G12" r:id="rId69" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D20" r:id="rId70" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G10" r:id="rId5"/>
+    <hyperlink ref="H10" r:id="rId6"/>
+    <hyperlink ref="H34" r:id="rId7"/>
+    <hyperlink ref="G34" r:id="rId8" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="E34" r:id="rId9" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="D34" r:id="rId10" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="G33" r:id="rId11"/>
+    <hyperlink ref="H33" r:id="rId12"/>
+    <hyperlink ref="H29" r:id="rId13"/>
+    <hyperlink ref="H28" r:id="rId14"/>
+    <hyperlink ref="G29" r:id="rId15" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="E29" r:id="rId16" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="D29" r:id="rId17" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="G28" r:id="rId18" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="E28" r:id="rId19" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="D28" r:id="rId20" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="H9" r:id="rId21"/>
+    <hyperlink ref="G9" r:id="rId22" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="E9" r:id="rId23" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="D9" r:id="rId24" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
+    <hyperlink ref="H12" r:id="rId25"/>
+    <hyperlink ref="G12" r:id="rId26" display="PRT-08232"/>
+    <hyperlink ref="H21" r:id="rId27"/>
+    <hyperlink ref="G21" r:id="rId28" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="E21" r:id="rId29" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="D21" r:id="rId30" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
+    <hyperlink ref="E13" r:id="rId31" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="G13" r:id="rId32" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="D13" r:id="rId33" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="G5" r:id="rId34" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="E5" r:id="rId35" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="H7" r:id="rId36"/>
+    <hyperlink ref="D5" r:id="rId37" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
+    <hyperlink ref="G7" r:id="rId38" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="E7" r:id="rId39" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="D7" r:id="rId40" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="G6" r:id="rId41" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="E6" r:id="rId42" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="D6" r:id="rId43" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="H19" r:id="rId44"/>
+    <hyperlink ref="G19" r:id="rId45"/>
+    <hyperlink ref="G18" r:id="rId46"/>
+    <hyperlink ref="H18" r:id="rId47"/>
+    <hyperlink ref="H35" r:id="rId48"/>
+    <hyperlink ref="H36" r:id="rId49"/>
+    <hyperlink ref="G36" r:id="rId50"/>
+    <hyperlink ref="G35" r:id="rId51"/>
+    <hyperlink ref="G30" r:id="rId52"/>
+    <hyperlink ref="G31" r:id="rId53"/>
+    <hyperlink ref="G25" r:id="rId54" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
+    <hyperlink ref="G2" r:id="rId55"/>
+    <hyperlink ref="G17" r:id="rId56"/>
+    <hyperlink ref="H8" r:id="rId57"/>
+    <hyperlink ref="G8" r:id="rId58"/>
+    <hyperlink ref="G11" r:id="rId59"/>
+    <hyperlink ref="H11" r:id="rId60"/>
+    <hyperlink ref="G23" r:id="rId61"/>
+    <hyperlink ref="G3" r:id="rId62"/>
+    <hyperlink ref="G26" r:id="rId63"/>
+    <hyperlink ref="G4" r:id="rId64"/>
+    <hyperlink ref="G14" r:id="rId65"/>
+    <hyperlink ref="G16" r:id="rId66"/>
+    <hyperlink ref="G32" r:id="rId67"/>
+    <hyperlink ref="G24" r:id="rId68" display="http://www.adafruit.com/products/572"/>
+    <hyperlink ref="G27" r:id="rId69"/>
+    <hyperlink ref="H20" r:id="rId70"/>
     <hyperlink ref="G20" r:id="rId71"/>
-    <hyperlink ref="E20" r:id="rId72" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
-    <hyperlink ref="D19" r:id="rId73" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E19" r:id="rId74" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
-    <hyperlink ref="G19" r:id="rId75" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
-    <hyperlink ref="D18" r:id="rId76" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E18" r:id="rId77" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
-    <hyperlink ref="G18" r:id="rId78" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId79"/>
+  <pageSetup scale="46" orientation="landscape" r:id="rId72"/>
   <tableParts count="1">
-    <tablePart r:id="rId80"/>
+    <tablePart r:id="rId73"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/full_BOM.xlsx
+++ b/Documentation/full_BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="4170"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="25230" windowHeight="6255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -952,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:P138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:I11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2142,10 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
       <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
+      <c r="J39" s="7">
+        <f>SUM(Table3[Quantity])</f>
+        <v>162</v>
+      </c>
       <c r="K39" s="8">
         <f>SUM(Table3[Total])</f>
         <v>343.36</v>

--- a/Documentation/full_BOM.xlsx
+++ b/Documentation/full_BOM.xlsx
@@ -953,7 +953,7 @@
   <dimension ref="A1:P138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,85 +2269,108 @@
     <hyperlink ref="G22" r:id="rId2" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="E22" r:id="rId3" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
     <hyperlink ref="D22" r:id="rId4" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
-    <hyperlink ref="H34" r:id="rId5"/>
-    <hyperlink ref="G34" r:id="rId6" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="E34" r:id="rId7" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="D34" r:id="rId8" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="G33" r:id="rId9"/>
-    <hyperlink ref="H33" r:id="rId10"/>
-    <hyperlink ref="H29" r:id="rId11"/>
-    <hyperlink ref="H28" r:id="rId12"/>
-    <hyperlink ref="G29" r:id="rId13" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="E29" r:id="rId14" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="D29" r:id="rId15" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="G28" r:id="rId16" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="E28" r:id="rId17" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="D28" r:id="rId18" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="H9" r:id="rId19"/>
-    <hyperlink ref="G9" r:id="rId20" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="E9" r:id="rId21" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
-    <hyperlink ref="D9" r:id="rId22" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
-    <hyperlink ref="H21" r:id="rId23"/>
-    <hyperlink ref="G21" r:id="rId24" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="E21" r:id="rId25" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="D21" r:id="rId26" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
-    <hyperlink ref="E13" r:id="rId27" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="G13" r:id="rId28" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
-    <hyperlink ref="D13" r:id="rId29" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="G6" r:id="rId30" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="E6" r:id="rId31" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
-    <hyperlink ref="H7" r:id="rId32"/>
-    <hyperlink ref="D6" r:id="rId33" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
-    <hyperlink ref="G7" r:id="rId34" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="E7" r:id="rId35" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
-    <hyperlink ref="D7" r:id="rId36" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="G5" r:id="rId37" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="E5" r:id="rId38" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
-    <hyperlink ref="D5" r:id="rId39" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
-    <hyperlink ref="H35" r:id="rId40"/>
-    <hyperlink ref="H36" r:id="rId41"/>
-    <hyperlink ref="G36" r:id="rId42"/>
-    <hyperlink ref="G35" r:id="rId43"/>
-    <hyperlink ref="G30" r:id="rId44"/>
-    <hyperlink ref="G31" r:id="rId45"/>
-    <hyperlink ref="G25" r:id="rId46" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
-    <hyperlink ref="G2" r:id="rId47"/>
-    <hyperlink ref="G17" r:id="rId48"/>
-    <hyperlink ref="H8" r:id="rId49"/>
-    <hyperlink ref="G8" r:id="rId50"/>
-    <hyperlink ref="G23" r:id="rId51"/>
-    <hyperlink ref="G3" r:id="rId52"/>
-    <hyperlink ref="G26" r:id="rId53"/>
-    <hyperlink ref="G4" r:id="rId54"/>
-    <hyperlink ref="G14" r:id="rId55"/>
-    <hyperlink ref="G16" r:id="rId56"/>
-    <hyperlink ref="G32" r:id="rId57"/>
-    <hyperlink ref="G24" r:id="rId58" display="http://www.adafruit.com/products/572"/>
-    <hyperlink ref="G27" r:id="rId59"/>
-    <hyperlink ref="D10" r:id="rId60" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E10" r:id="rId61" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="G10" r:id="rId62" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
-    <hyperlink ref="D11" r:id="rId63" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E11" r:id="rId64" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="G11" r:id="rId65" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
-    <hyperlink ref="H11" r:id="rId66"/>
-    <hyperlink ref="E12" r:id="rId67" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D12" r:id="rId68" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G12" r:id="rId69" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
-    <hyperlink ref="D20" r:id="rId70" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="G20" r:id="rId71"/>
-    <hyperlink ref="E20" r:id="rId72" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
-    <hyperlink ref="D19" r:id="rId73" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E19" r:id="rId74" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
-    <hyperlink ref="G19" r:id="rId75" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
-    <hyperlink ref="D18" r:id="rId76" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
-    <hyperlink ref="E18" r:id="rId77" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
-    <hyperlink ref="G18" r:id="rId78" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="G34" r:id="rId5" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="E34" r:id="rId6" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="D34" r:id="rId7" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="G33" r:id="rId8"/>
+    <hyperlink ref="H33" r:id="rId9"/>
+    <hyperlink ref="H29" r:id="rId10"/>
+    <hyperlink ref="H28" r:id="rId11"/>
+    <hyperlink ref="G29" r:id="rId12" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="E29" r:id="rId13" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="D29" r:id="rId14" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="G28" r:id="rId15" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="E28" r:id="rId16" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="D28" r:id="rId17" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="H9" r:id="rId18"/>
+    <hyperlink ref="G9" r:id="rId19" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="E9" r:id="rId20" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
+    <hyperlink ref="D9" r:id="rId21" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
+    <hyperlink ref="H21" r:id="rId22"/>
+    <hyperlink ref="G21" r:id="rId23" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="E21" r:id="rId24" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="D21" r:id="rId25" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
+    <hyperlink ref="E13" r:id="rId26" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="G13" r:id="rId27" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
+    <hyperlink ref="D13" r:id="rId28" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="G6" r:id="rId29" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="E6" r:id="rId30" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
+    <hyperlink ref="H7" r:id="rId31"/>
+    <hyperlink ref="D6" r:id="rId32" display="http://digikey.com/Suppliers/us/Panasonic-Electronic-Components.page?lang=en"/>
+    <hyperlink ref="G7" r:id="rId33" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="E7" r:id="rId34" display="http://www.digikey.com/product-detail/en/FK18X7R1H104K/445-5303-ND/2256783"/>
+    <hyperlink ref="D7" r:id="rId35" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="G5" r:id="rId36" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="E5" r:id="rId37" display="http://www.digikey.com/product-detail/en/FK28C0G1H220J/445-4718-ND/2050067"/>
+    <hyperlink ref="D5" r:id="rId38" display="http://digikey.com/Suppliers/us/TDK.page?lang=en"/>
+    <hyperlink ref="G36" r:id="rId39"/>
+    <hyperlink ref="G35" r:id="rId40"/>
+    <hyperlink ref="G30" r:id="rId41"/>
+    <hyperlink ref="G31" r:id="rId42"/>
+    <hyperlink ref="G25" r:id="rId43" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
+    <hyperlink ref="G2" r:id="rId44"/>
+    <hyperlink ref="G17" r:id="rId45"/>
+    <hyperlink ref="H8" r:id="rId46"/>
+    <hyperlink ref="G8" r:id="rId47"/>
+    <hyperlink ref="G23" r:id="rId48"/>
+    <hyperlink ref="G3" r:id="rId49"/>
+    <hyperlink ref="G26" r:id="rId50"/>
+    <hyperlink ref="G4" r:id="rId51"/>
+    <hyperlink ref="G14" r:id="rId52"/>
+    <hyperlink ref="G16" r:id="rId53"/>
+    <hyperlink ref="G32" r:id="rId54"/>
+    <hyperlink ref="G24" r:id="rId55" display="http://www.adafruit.com/products/572"/>
+    <hyperlink ref="G27" r:id="rId56"/>
+    <hyperlink ref="D10" r:id="rId57" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E10" r:id="rId58" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="G10" r:id="rId59" display="http://www.digikey.com/product-detail/en/0022232031/WM4201-ND/26669"/>
+    <hyperlink ref="D11" r:id="rId60" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E11" r:id="rId61" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="G11" r:id="rId62" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
+    <hyperlink ref="H11" r:id="rId63"/>
+    <hyperlink ref="E12" r:id="rId64" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D12" r:id="rId65" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G12" r:id="rId66" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
+    <hyperlink ref="D20" r:id="rId67" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="G20" r:id="rId68"/>
+    <hyperlink ref="E20" r:id="rId69" display="http://www.digikey.com/scripts/dksearch/dksus.dll?vendor=0&amp;keywords=22-01-2057"/>
+    <hyperlink ref="D19" r:id="rId70" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E19" r:id="rId71" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
+    <hyperlink ref="G19" r:id="rId72" display="http://www.digikey.com/product-detail/en/0022012027/WM2011-ND/171991"/>
+    <hyperlink ref="D18" r:id="rId73" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
+    <hyperlink ref="E18" r:id="rId74" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="G18" r:id="rId75" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
+    <hyperlink ref="H2" r:id="rId76"/>
+    <hyperlink ref="H3" r:id="rId77"/>
+    <hyperlink ref="H4" r:id="rId78"/>
+    <hyperlink ref="H5" r:id="rId79"/>
+    <hyperlink ref="H6" r:id="rId80"/>
+    <hyperlink ref="H10" r:id="rId81"/>
+    <hyperlink ref="H12" r:id="rId82"/>
+    <hyperlink ref="H13" r:id="rId83"/>
+    <hyperlink ref="H14" r:id="rId84"/>
+    <hyperlink ref="H15" r:id="rId85"/>
+    <hyperlink ref="H16" r:id="rId86"/>
+    <hyperlink ref="H17" r:id="rId87"/>
+    <hyperlink ref="H18" r:id="rId88"/>
+    <hyperlink ref="H19" r:id="rId89"/>
+    <hyperlink ref="H20" r:id="rId90"/>
+    <hyperlink ref="H23" r:id="rId91"/>
+    <hyperlink ref="H24" r:id="rId92"/>
+    <hyperlink ref="H25" r:id="rId93"/>
+    <hyperlink ref="H26" r:id="rId94"/>
+    <hyperlink ref="H27" r:id="rId95"/>
+    <hyperlink ref="H30" r:id="rId96"/>
+    <hyperlink ref="H31" r:id="rId97"/>
+    <hyperlink ref="H32" r:id="rId98"/>
+    <hyperlink ref="H34" r:id="rId99"/>
+    <hyperlink ref="H35" r:id="rId100"/>
+    <hyperlink ref="H36" r:id="rId101"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId79"/>
+  <pageSetup scale="46" orientation="landscape" r:id="rId102"/>
   <tableParts count="1">
-    <tablePart r:id="rId80"/>
+    <tablePart r:id="rId103"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/full_BOM.xlsx
+++ b/Documentation/full_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="254">
   <si>
     <t>Column10</t>
   </si>
@@ -751,6 +751,33 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/10847</t>
+  </si>
+  <si>
+    <t>Kinect</t>
+  </si>
+  <si>
+    <t>USB Hub</t>
+  </si>
+  <si>
+    <t>Budget:</t>
+  </si>
+  <si>
+    <t>http://www.gamestop.com/xbox-360/accessories/xbox-360-kinect-sensor-without-ac-adapter-gamestop-refurbished/89663</t>
+  </si>
+  <si>
+    <t>Gamestop</t>
+  </si>
+  <si>
+    <t>IOGear</t>
+  </si>
+  <si>
+    <t>GUH285</t>
+  </si>
+  <si>
+    <t>N82E16817399037</t>
+  </si>
+  <si>
+    <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16817399037</t>
   </si>
 </sst>
 </file>
@@ -862,7 +889,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -889,6 +916,7 @@
     <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -915,7 +943,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:K58" totalsRowShown="0">
   <autoFilter ref="A1:K58"/>
-  <sortState ref="A2:K58">
+  <sortState ref="A3:K58">
     <sortCondition ref="A2:A58"/>
     <sortCondition ref="F2:F58"/>
     <sortCondition ref="K2:K58"/>
@@ -1231,8 +1259,8 @@
   </sheetPr>
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1272,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="93.7109375" customWidth="1"/>
+    <col min="8" max="8" width="112.5703125" customWidth="1"/>
     <col min="9" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="15" width="12" hidden="1" customWidth="1"/>
@@ -2257,191 +2285,182 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>20</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>50</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="G31" s="2"/>
       <c r="H31" s="4" t="s">
-        <v>51</v>
+        <v>248</v>
       </c>
       <c r="I31" s="3">
-        <v>0.43</v>
+        <v>59.99</v>
       </c>
       <c r="J31" s="2">
-        <v>3</v>
-      </c>
-      <c r="K31" s="1">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.29</v>
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>59.99</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="5">
-        <v>3.31</v>
+        <v>51</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.43</v>
       </c>
       <c r="J32" s="2">
         <v>3</v>
       </c>
       <c r="K32" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I33" s="5">
+        <v>3.31</v>
+      </c>
+      <c r="J33" s="2">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>9.93</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17" t="s">
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="17" t="s">
+      <c r="G34" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H34" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I34" s="18">
         <v>22.95</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J34" s="17">
         <v>2</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K34" s="19">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>45.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="I34" s="5">
-        <v>0.63</v>
-      </c>
-      <c r="J34" s="2">
-        <v>5</v>
-      </c>
-      <c r="K34" s="1">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>3.15</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="J35" s="2">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G36" s="4">
         <v>572</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I36" s="5">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J36" s="2">
         <v>1</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K36" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>9.9499999999999993</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="14">
-        <v>4986181</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="15">
-        <v>12.69</v>
-      </c>
-      <c r="J36" s="13">
-        <v>3</v>
-      </c>
-      <c r="K36" s="16">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>38.07</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2449,62 +2468,63 @@
         <v>103</v>
       </c>
       <c r="B37" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="14">
+        <v>4986181</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I37" s="15">
+        <v>12.69</v>
+      </c>
+      <c r="J37" s="13">
+        <v>3</v>
+      </c>
+      <c r="K37" s="16">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>38.07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H38" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I38" s="15">
         <v>9.9499999999999993</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J38" s="13">
         <v>6</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K38" s="16">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>59.699999999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="5">
-        <v>0.08</v>
-      </c>
-      <c r="J38" s="2">
-        <v>3</v>
-      </c>
-      <c r="K38" s="1">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.24</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2512,299 +2532,299 @@
         <v>23</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I39" s="3">
-        <v>0.03</v>
+        <v>61</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0.08</v>
       </c>
       <c r="J39" s="2">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="K39" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>2.1</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="F40" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="I40" s="5">
-        <v>0.95</v>
+        <v>65</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0.03</v>
       </c>
       <c r="J40" s="2">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="K40" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>6.6499999999999995</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="J41" s="2">
+        <v>7</v>
+      </c>
+      <c r="K41" s="1">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>6.6499999999999995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="3">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="3">
         <v>12.99</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J42" s="2">
         <v>1</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K42" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>12.99</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11" t="s">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G43" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H43" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="10">
+      <c r="I43" s="10">
         <v>13.95</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J43" s="11">
         <v>1</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K43" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>13.95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I43" s="5">
-        <v>1.95</v>
-      </c>
-      <c r="J43" s="2">
-        <v>8</v>
-      </c>
-      <c r="K43" s="1">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>15.6</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G44" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="J44" s="2">
+        <v>8</v>
+      </c>
+      <c r="K44" s="1">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H45" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I45" s="5">
         <v>2.95</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J45" s="2">
         <v>4</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K45" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>11.8</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="s">
+    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17" t="s">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G45" s="17" t="s">
+      <c r="G46" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H46" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I46" s="18">
         <v>23.95</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J46" s="17">
         <v>2</v>
       </c>
-      <c r="K45" s="19">
+      <c r="K46" s="19">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>47.9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I46" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="J46" s="2">
-        <v>3</v>
-      </c>
-      <c r="K46" s="1">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.0499999999999998</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I47" s="5">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="J47" s="2">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="K47" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>10.4</v>
+        <v>1.0499999999999998</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="I48" s="5">
-        <v>49.95</v>
+        <v>0.16</v>
       </c>
       <c r="J48" s="2">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="K48" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>49.95</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2812,7 +2832,7 @@
         <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>93</v>
@@ -2821,86 +2841,80 @@
         <v>26</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I49" s="5">
         <v>49.95</v>
       </c>
       <c r="J49" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>99.9</v>
+        <v>49.95</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>210</v>
+        <v>92</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>212</v>
+        <v>95</v>
       </c>
       <c r="I50" s="5">
-        <v>0.49</v>
+        <v>49.95</v>
       </c>
       <c r="J50" s="2">
         <v>2</v>
       </c>
       <c r="K50" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0.98</v>
+        <v>99.9</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>205</v>
+        <v>246</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>251</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>206</v>
+        <v>158</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="I51" s="5">
-        <v>1.75</v>
+        <v>253</v>
+      </c>
+      <c r="I51" s="3">
+        <v>4.99</v>
       </c>
       <c r="J51" s="2">
         <v>1</v>
       </c>
-      <c r="K51" s="1">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>1.75</v>
+      <c r="K51" s="2">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>4.99</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2908,101 +2922,154 @@
         <v>199</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>44</v>
+        <v>208</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>209</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="I52" s="5">
+        <v>0.49</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I53" s="5">
+        <v>1.75</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1">
+        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I54" s="5">
         <v>2.06</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J54" s="2">
         <v>3</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K54" s="1">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>6.18</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G55" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H55" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I55" s="15">
         <v>0</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J55" s="13">
         <v>40</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K55" s="16">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="13" t="s">
+    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B56" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="I54" s="15">
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="15">
         <v>2.5</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J56" s="13">
         <v>1</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K56" s="16">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
         <v>2.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I55" s="2">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0</v>
-      </c>
-      <c r="K55" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="I56" s="2">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0</v>
-      </c>
-      <c r="K56" s="2">
-        <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3044,14 +3111,33 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6">
         <f>SUM(Table3[Quantity])</f>
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="K60" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>826.19999999999993</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>891.18000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="22">
+        <v>644.53</v>
+      </c>
+      <c r="K61" s="22">
+        <f>J61-K60</f>
+        <v>-246.65000000000009</v>
+      </c>
+    </row>
     <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3174,10 +3260,10 @@
     <hyperlink ref="H13" r:id="rId20"/>
     <hyperlink ref="E5" r:id="rId21" display="http://www.digikey.com/product-detail/en/BB-BONE-000/BB-BONE-000-ND/2765688"/>
     <hyperlink ref="G5" r:id="rId22" display="http://www.digikey.com/product-detail/en/BB-BONE-000/BB-BONE-000-ND/2765688"/>
-    <hyperlink ref="H32" r:id="rId23"/>
-    <hyperlink ref="G32" r:id="rId24" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="E32" r:id="rId25" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
-    <hyperlink ref="D32" r:id="rId26" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
+    <hyperlink ref="H33" r:id="rId23"/>
+    <hyperlink ref="G33" r:id="rId24" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="E33" r:id="rId25" display="http://www.digikey.com/product-detail/en/ATMEGA328P-PN/ATMEGA328P-PN-ND/2357094"/>
+    <hyperlink ref="D33" r:id="rId26" display="http://digikey.com/Suppliers/us/Atmel.page?lang=en"/>
     <hyperlink ref="G10" r:id="rId27" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
     <hyperlink ref="E10" r:id="rId28" display="http://www.digikey.com/product-detail/en/EEU-FR1A101B/P15316CT-ND/3072196"/>
     <hyperlink ref="H12" r:id="rId29"/>
@@ -3198,55 +3284,55 @@
     <hyperlink ref="G22" r:id="rId44" display="http://www.digikey.com/product-detail/en/0022232021/WM4200-ND/26667"/>
     <hyperlink ref="H20" r:id="rId45"/>
     <hyperlink ref="H22" r:id="rId46"/>
-    <hyperlink ref="H39" r:id="rId47"/>
-    <hyperlink ref="H38" r:id="rId48"/>
-    <hyperlink ref="G39" r:id="rId49" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="E39" r:id="rId50" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
-    <hyperlink ref="D39" r:id="rId51" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="G38" r:id="rId52" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="E38" r:id="rId53" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
-    <hyperlink ref="D38" r:id="rId54" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
-    <hyperlink ref="G46" r:id="rId55"/>
-    <hyperlink ref="H46" r:id="rId56"/>
+    <hyperlink ref="H40" r:id="rId47"/>
+    <hyperlink ref="H39" r:id="rId48"/>
+    <hyperlink ref="G40" r:id="rId49" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="E40" r:id="rId50" display="http://www.digikey.com/product-detail/en/CF14JT10K0/CF14JT10K0CT-ND/1830374"/>
+    <hyperlink ref="D40" r:id="rId51" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="G39" r:id="rId52" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="E39" r:id="rId53" display="http://www.digikey.com/product-detail/en/CF14JT220R/CF14JT220RCT-ND/1830334"/>
+    <hyperlink ref="D39" r:id="rId54" display="http://digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
+    <hyperlink ref="G47" r:id="rId55"/>
+    <hyperlink ref="H47" r:id="rId56"/>
     <hyperlink ref="H15" r:id="rId57"/>
     <hyperlink ref="G15" r:id="rId58" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
     <hyperlink ref="E15" r:id="rId59" display="http://www.digikey.com/product-detail/en/ATS16B/CTX1085-ND/2640031"/>
     <hyperlink ref="D15" r:id="rId60" display="http://digikey.com/Suppliers/us/CTS-Frequency-Controls.page?lang=en"/>
-    <hyperlink ref="H31" r:id="rId61"/>
-    <hyperlink ref="G31" r:id="rId62" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="E31" r:id="rId63" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
-    <hyperlink ref="D31" r:id="rId64" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
-    <hyperlink ref="G42" r:id="rId65"/>
-    <hyperlink ref="H42" r:id="rId66"/>
+    <hyperlink ref="H32" r:id="rId61"/>
+    <hyperlink ref="G32" r:id="rId62" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="E32" r:id="rId63" display="http://www.digikey.com/product-detail/en/TLHR4405/751-1129-ND/1681264"/>
+    <hyperlink ref="D32" r:id="rId64" display="http://digikey.com/Suppliers/us/Vishay-Semiconductors.page?lang=en"/>
+    <hyperlink ref="G43" r:id="rId65"/>
+    <hyperlink ref="H43" r:id="rId66"/>
     <hyperlink ref="E30" r:id="rId67" display="http://www.solarbotics.com/product/35235/"/>
     <hyperlink ref="G30" r:id="rId68" display="https://solarbotics.com/product/35080/"/>
     <hyperlink ref="H30" r:id="rId69"/>
     <hyperlink ref="E23" r:id="rId70" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
     <hyperlink ref="G23" r:id="rId71" display="http://www.digikey.com/product-detail/en/SN74LS14NSR/296-3652-1-ND/377690"/>
     <hyperlink ref="D23" r:id="rId72" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="H48" r:id="rId73"/>
-    <hyperlink ref="H49" r:id="rId74"/>
-    <hyperlink ref="G49" r:id="rId75"/>
-    <hyperlink ref="G48" r:id="rId76"/>
-    <hyperlink ref="G43" r:id="rId77"/>
-    <hyperlink ref="G36" r:id="rId78" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
+    <hyperlink ref="H49" r:id="rId73"/>
+    <hyperlink ref="H50" r:id="rId74"/>
+    <hyperlink ref="G50" r:id="rId75"/>
+    <hyperlink ref="G49" r:id="rId76"/>
+    <hyperlink ref="G44" r:id="rId77"/>
+    <hyperlink ref="G37" r:id="rId78" display="http://www.frys.com/product/4986181?source=googleps&amp;gclid=CNPX5OnlxbQCFcxAMgodfm0AYw"/>
     <hyperlink ref="G6" r:id="rId79"/>
     <hyperlink ref="D21" r:id="rId80" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
     <hyperlink ref="E21" r:id="rId81" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
     <hyperlink ref="G21" r:id="rId82" display="http://www.digikey.com/product-detail/en/0022232051/WM4203-ND/26673"/>
     <hyperlink ref="H21" r:id="rId83"/>
-    <hyperlink ref="G37" r:id="rId84"/>
-    <hyperlink ref="G44" r:id="rId85"/>
-    <hyperlink ref="G40" r:id="rId86"/>
-    <hyperlink ref="D50" r:id="rId87" display="http://digikey.com/Suppliers/us/ON-Semiconductor.page?lang=en"/>
-    <hyperlink ref="G50" r:id="rId88"/>
-    <hyperlink ref="E50" r:id="rId89"/>
-    <hyperlink ref="D51" r:id="rId90" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="E51" r:id="rId91" display="http://www.digikey.com/product-detail/en/LM3940IT-3.3%2FNOPB/LM3940IT-3.3%2FNOPB-ND/308006"/>
-    <hyperlink ref="G51" r:id="rId92" display="http://www.digikey.com/product-detail/en/LM3940IT-3.3%2FNOPB/LM3940IT-3.3%2FNOPB-ND/308006"/>
-    <hyperlink ref="D52" r:id="rId93" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="E52" r:id="rId94" display="http://www.digikey.com/product-detail/en/LM1085IT-5.0%2FNOPB/LM1085IT-5.0%2FNOPB-ND/363564"/>
-    <hyperlink ref="G52" r:id="rId95" display="http://www.digikey.com/product-detail/en/LM1085IT-5.0%2FNOPB/LM1085IT-5.0%2FNOPB-ND/363564"/>
+    <hyperlink ref="G38" r:id="rId84"/>
+    <hyperlink ref="G45" r:id="rId85"/>
+    <hyperlink ref="G41" r:id="rId86"/>
+    <hyperlink ref="D52" r:id="rId87" display="http://digikey.com/Suppliers/us/ON-Semiconductor.page?lang=en"/>
+    <hyperlink ref="G52" r:id="rId88"/>
+    <hyperlink ref="E52" r:id="rId89"/>
+    <hyperlink ref="D53" r:id="rId90" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="E53" r:id="rId91" display="http://www.digikey.com/product-detail/en/LM3940IT-3.3%2FNOPB/LM3940IT-3.3%2FNOPB-ND/308006"/>
+    <hyperlink ref="G53" r:id="rId92" display="http://www.digikey.com/product-detail/en/LM3940IT-3.3%2FNOPB/LM3940IT-3.3%2FNOPB-ND/308006"/>
+    <hyperlink ref="D54" r:id="rId93" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="E54" r:id="rId94" display="http://www.digikey.com/product-detail/en/LM1085IT-5.0%2FNOPB/LM1085IT-5.0%2FNOPB-ND/363564"/>
+    <hyperlink ref="G54" r:id="rId95" display="http://www.digikey.com/product-detail/en/LM1085IT-5.0%2FNOPB/LM1085IT-5.0%2FNOPB-ND/363564"/>
     <hyperlink ref="D17" r:id="rId96" display="http://digikey.com/Suppliers/us/Littelfuse.page?lang=en"/>
     <hyperlink ref="G17" r:id="rId97"/>
     <hyperlink ref="E17" r:id="rId98" display="http://www.digikey.com/product-detail/en/60R050XPR/F1989CT-ND/2690457"/>
@@ -3265,19 +3351,19 @@
     <hyperlink ref="G7" r:id="rId111" display="http://www.digikey.com/product-detail/en/FK24X7R1H334K/445-5263-ND/2256743"/>
     <hyperlink ref="E11" r:id="rId112" display="http://www.digikey.com/product-detail/en/ECO-S1EP473EA/P6901-ND/132015"/>
     <hyperlink ref="G11" r:id="rId113" display="http://www.digikey.com/product-detail/en/ECO-S1EP473EA/P6901-ND/132015"/>
-    <hyperlink ref="H40" r:id="rId114"/>
+    <hyperlink ref="H41" r:id="rId114"/>
     <hyperlink ref="D27" r:id="rId115" display="http://digikey.com/Suppliers/us/Molex.page?lang=en"/>
     <hyperlink ref="E27" r:id="rId116" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
     <hyperlink ref="G27" r:id="rId117" display="http://www.digikey.com/product-detail/en/0022012037/WM2012-ND/171992"/>
     <hyperlink ref="H27" r:id="rId118"/>
-    <hyperlink ref="G35" r:id="rId119" display="http://www.adafruit.com/products/572"/>
-    <hyperlink ref="D47" r:id="rId120" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
-    <hyperlink ref="E47" r:id="rId121" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="G47" r:id="rId122" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
-    <hyperlink ref="H47" r:id="rId123"/>
-    <hyperlink ref="E34" r:id="rId124" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
-    <hyperlink ref="D34" r:id="rId125" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
-    <hyperlink ref="G34" r:id="rId126" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
+    <hyperlink ref="G36" r:id="rId119" display="http://www.adafruit.com/products/572"/>
+    <hyperlink ref="D48" r:id="rId120" display="http://digikey.com/Suppliers/us/Fairchild-Semiconductor.page?lang=en"/>
+    <hyperlink ref="E48" r:id="rId121" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="G48" r:id="rId122" display="http://www.digikey.com/product-detail/en/2N3904TFR/2N3904D26ZCT-ND/458921"/>
+    <hyperlink ref="H48" r:id="rId123"/>
+    <hyperlink ref="E35" r:id="rId124" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
+    <hyperlink ref="D35" r:id="rId125" display="http://digikey.com/Suppliers/us/Texas-Instruments.page?lang=en"/>
+    <hyperlink ref="G35" r:id="rId126" display="http://www.digikey.com/product-detail/en/CD74HCT151E/296-2139-5-ND/38312"/>
     <hyperlink ref="G24" r:id="rId127"/>
     <hyperlink ref="H19" r:id="rId128"/>
     <hyperlink ref="H23" r:id="rId129"/>
@@ -3286,13 +3372,15 @@
     <hyperlink ref="E3" r:id="rId132" display=" DCB200"/>
     <hyperlink ref="G4" r:id="rId133"/>
     <hyperlink ref="E4" r:id="rId134"/>
-    <hyperlink ref="H37" r:id="rId135"/>
+    <hyperlink ref="H38" r:id="rId135"/>
     <hyperlink ref="H4" r:id="rId136"/>
+    <hyperlink ref="H31" r:id="rId137"/>
+    <hyperlink ref="H51" r:id="rId138"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId137"/>
+  <pageSetup scale="46" orientation="landscape" r:id="rId139"/>
   <tableParts count="1">
-    <tablePart r:id="rId138"/>
+    <tablePart r:id="rId140"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Documentation/full_BOM.xlsx
+++ b/Documentation/full_BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="253">
   <si>
     <t>Column10</t>
   </si>
@@ -702,39 +702,9 @@
     <t>Battery</t>
   </si>
   <si>
-    <t>20v Li-Ion</t>
-  </si>
-  <si>
-    <t>3Ah</t>
-  </si>
-  <si>
-    <t>Dewalt</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>B0052MIMQU</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/DEWALT-DCB200-Li-Ion-Premium-Battery/dp/B0052MIMQU</t>
-  </si>
-  <si>
     <t>Battery Charger</t>
   </si>
   <si>
-    <t>DCB101</t>
-  </si>
-  <si>
-    <t>DCB200</t>
-  </si>
-  <si>
-    <t>B0052MINQO</t>
-  </si>
-  <si>
-    <t>http://www.amazon.com/DEWALT-DCB101-12-Volt-20-Volt-Battery/dp/B0052MINQO/ref=pd_sim_hi_3</t>
-  </si>
-  <si>
     <t>Motor Driver</t>
   </si>
   <si>
@@ -778,13 +748,41 @@
   </si>
   <si>
     <t>http://www.newegg.com/Product/Product.aspx?Item=N82E16817399037</t>
+  </si>
+  <si>
+    <t>11.1v Li-Ion</t>
+  </si>
+  <si>
+    <t>2.2Ah</t>
+  </si>
+  <si>
+    <t>Powerizer</t>
+  </si>
+  <si>
+    <t>http://www.batteryspace.com/li-ion18650battery111v2200mahbatterymodule2442wh42aratechinacellswithpcb.aspx</t>
+  </si>
+  <si>
+    <t>http://www.batteryspace.com/smartcharger18afor111vli-ionpolymerrechargeablebatterypack--ullisted.aspx</t>
+  </si>
+  <si>
+    <t>Loaned:</t>
+  </si>
+  <si>
+    <t>Chris Macklen</t>
+  </si>
+  <si>
+    <t>Total with loans:</t>
+  </si>
+  <si>
+    <t>Budget with loans:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -889,7 +887,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -917,6 +915,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="8" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -1259,8 +1261,8 @@
   </sheetPr>
   <dimension ref="A1:P159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1271,8 +1273,8 @@
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="112.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="120" customWidth="1"/>
     <col min="9" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="15" width="12" hidden="1" customWidth="1"/>
@@ -1360,67 +1362,59 @@
         <v>227</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>236</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>232</v>
+        <v>246</v>
+      </c>
+      <c r="G3" s="23">
+        <v>4895</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="I3" s="18">
-        <v>57.99</v>
+        <v>19.95</v>
       </c>
       <c r="J3" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="19">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>57.99</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>235</v>
-      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>237</v>
+        <v>246</v>
+      </c>
+      <c r="G4" s="20">
+        <v>4209</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="I4" s="18">
-        <v>39.99</v>
+        <v>29.95</v>
       </c>
       <c r="J4" s="17">
         <v>1</v>
       </c>
       <c r="K4" s="19">
         <f>Table3[[#This Row],[Price]]*Table3[[#This Row],[Quantity]]</f>
-        <v>39.99</v>
+        <v>29.95</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2285,18 +2279,18 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="4" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="I31" s="3">
         <v>59.99</v>
@@ -2377,7 +2371,7 @@
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -2387,10 +2381,10 @@
         <v>26</v>
       </c>
       <c r="G34" s="17" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="I34" s="18">
         <v>22.95</v>
@@ -2735,7 +2729,7 @@
     </row>
     <row r="46" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -2745,10 +2739,10 @@
         <v>26</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="I46" s="18">
         <v>23.95</v>
@@ -2889,22 +2883,22 @@
     </row>
     <row r="51" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>158</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="I51" s="3">
         <v>4.99</v>
@@ -3111,16 +3105,16 @@
       <c r="I60" s="6"/>
       <c r="J60" s="6">
         <f>SUM(Table3[Quantity])</f>
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K60" s="7">
         <f>SUM(Table3[Total])</f>
-        <v>891.18000000000006</v>
+        <v>863.05000000000007</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -3135,28 +3129,68 @@
       </c>
       <c r="K61" s="22">
         <f>J61-K60</f>
-        <v>-246.65000000000009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>-218.5200000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J63" s="25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J64" s="3">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="K65" s="26">
+        <f>K60-J63-J65</f>
+        <v>774.05000000000007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="K66" s="3">
+        <f>J61-K65</f>
+        <v>-129.5200000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -3367,20 +3401,14 @@
     <hyperlink ref="G24" r:id="rId127"/>
     <hyperlink ref="H19" r:id="rId128"/>
     <hyperlink ref="H23" r:id="rId129"/>
-    <hyperlink ref="H3" r:id="rId130"/>
-    <hyperlink ref="G3" r:id="rId131"/>
-    <hyperlink ref="E3" r:id="rId132" display=" DCB200"/>
-    <hyperlink ref="G4" r:id="rId133"/>
-    <hyperlink ref="E4" r:id="rId134"/>
-    <hyperlink ref="H38" r:id="rId135"/>
-    <hyperlink ref="H4" r:id="rId136"/>
-    <hyperlink ref="H31" r:id="rId137"/>
-    <hyperlink ref="H51" r:id="rId138"/>
+    <hyperlink ref="H38" r:id="rId130"/>
+    <hyperlink ref="H31" r:id="rId131"/>
+    <hyperlink ref="H51" r:id="rId132"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="landscape" r:id="rId139"/>
+  <pageSetup scale="41" orientation="landscape" r:id="rId133"/>
   <tableParts count="1">
-    <tablePart r:id="rId140"/>
+    <tablePart r:id="rId134"/>
   </tableParts>
 </worksheet>
 </file>
